--- a/export/01_ps_01/rgdp_corr_stdev.xlsx
+++ b/export/01_ps_01/rgdp_corr_stdev.xlsx
@@ -16,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">Variables: Log deviation from trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistic: Correlation with gdp</t>
+  </si>
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -51,13 +57,22 @@
     <t xml:space="preserve">structures</t>
   </si>
   <si>
+    <t xml:space="preserve">Statistics: Standard deviation, Standard deviation as share of standard deviation of gdp</t>
+  </si>
+  <si>
     <t xml:space="preserve">stdev</t>
   </si>
   <si>
     <t xml:space="preserve">relative_to_gdp</t>
   </si>
   <si>
+    <t xml:space="preserve">Statistic: First order serial correlation</t>
+  </si>
+  <si>
     <t xml:space="preserve">fosc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables: Log change</t>
   </si>
 </sst>
 </file>
@@ -393,79 +408,89 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.799606249919379</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.788744889251254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.781364669806619</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.799606249919379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.393815882782287</v>
+        <v>0.788744889251254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.82097137655151</v>
+        <v>0.781364669806619</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.761455267079051</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.50033700241588</v>
+        <v>0.393815882782287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.82097137655151</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
+        <v>0.761455267079051</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.50033700241588</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.450332155986828</v>
       </c>
     </row>
@@ -487,109 +512,119 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0138182580254293</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.820401704136662</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0612241939622384</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.63493234592813</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0475460762694748</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.82285089225471</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0168432829378027</v>
+        <v>0.0138182580254293</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.820401704136662</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.029824579356142</v>
+        <v>0.0612241939622384</v>
       </c>
       <c r="C6" t="n">
-        <v>1.77071058333909</v>
+        <v>3.63493234592813</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0730022945798696</v>
+        <v>0.0475460762694748</v>
       </c>
       <c r="C7" t="n">
-        <v>4.33420817363489</v>
+        <v>2.82285089225471</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0455082981298099</v>
+        <v>0.0168432829378027</v>
       </c>
       <c r="C8" t="n">
-        <v>2.70186627499275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0950936804181245</v>
+        <v>0.029824579356142</v>
       </c>
       <c r="C9" t="n">
-        <v>5.64579249599247</v>
+        <v>1.77071058333909</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0730022945798696</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.33420817363489</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
+        <v>0.0455082981298099</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.70186627499275</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0950936804181245</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.64579249599247</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.0587912451229164</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>3.49048610891447</v>
       </c>
     </row>
@@ -611,79 +646,89 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.69257760799803</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.844202695906808</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.881788150954849</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.77574117146463</v>
+        <v>0.69257760799803</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.887480665386878</v>
+        <v>0.844202695906808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.784035130488116</v>
+        <v>0.881788150954849</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.874961079140237</v>
+        <v>0.77574117146463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.88597755678399</v>
+        <v>0.887480665386878</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.784035130488116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
+        <v>0.874961079140237</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.88597755678399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.877091097943098</v>
       </c>
     </row>
@@ -703,111 +748,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0112488317438756</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.963250638604128</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0358890948393783</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.07322522996905</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0246461816173425</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.11048140132275</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0116779904347394</v>
+        <v>0.0112488317438756</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.963250638604128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0152571504717838</v>
+        <v>0.0358890948393783</v>
       </c>
       <c r="C6" t="n">
-        <v>1.30648766643935</v>
+        <v>3.07322522996905</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0491477633317919</v>
+        <v>0.0246461816173425</v>
       </c>
       <c r="C7" t="n">
-        <v>4.20858054358294</v>
+        <v>2.11048140132275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0241272130179427</v>
+        <v>0.0116779904347394</v>
       </c>
       <c r="C8" t="n">
-        <v>2.06604151225965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0487859939597577</v>
+        <v>0.0152571504717838</v>
       </c>
       <c r="C9" t="n">
-        <v>4.17760180849527</v>
+        <v>1.30648766643935</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0491477633317919</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.20858054358294</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
+        <v>0.0241272130179427</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.06604151225965</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0487859939597577</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.17760180849527</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.0304321434067739</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>2.60594008676742</v>
       </c>
     </row>
@@ -827,81 +882,91 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.108591035215167</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.29055748273126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.459793176977377</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.113347093925862</v>
+        <v>-0.108591035215167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.620683033041592</v>
+        <v>0.29055748273126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.170991340563906</v>
+        <v>0.459793176977377</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.41857626831569</v>
+        <v>0.113347093925862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.474517718511205</v>
+        <v>0.620683033041592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.170991340563906</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
+        <v>0.41857626831569</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.474517718511205</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
         <v>0.429023239795511</v>
       </c>
     </row>
